--- a/biology/Botanique/Côte_Sainte-Catherine_(Rouen)/Côte_Sainte-Catherine_(Rouen).xlsx
+++ b/biology/Botanique/Côte_Sainte-Catherine_(Rouen)/Côte_Sainte-Catherine_(Rouen).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4te_Sainte-Catherine_(Rouen)</t>
+          <t>Côte_Sainte-Catherine_(Rouen)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La côte Sainte-Catherine est une colline qui domine Rouen et la Seine, autrefois appelé Mont de Rouen[1]. C'est depuis ce point haut que s'offre un panorama remarquable sur la métropole de Rouen[2].
+La côte Sainte-Catherine est une colline qui domine Rouen et la Seine, autrefois appelé Mont de Rouen. C'est depuis ce point haut que s'offre un panorama remarquable sur la métropole de Rouen.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4te_Sainte-Catherine_(Rouen)</t>
+          <t>Côte_Sainte-Catherine_(Rouen)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Formation géologique de référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les paléontologues Alexandre Brongniart et Georges Cuvier sont les premiers à étudier les « « terrains de craie » de la côte Sainte-Catherine », fixant ainsi la référence internationale de ce type de craie cénomanienne[3]. Alcide Dessalines d'Orbigny mentionne la « faune de la craie de Rouen » dans sa « Paléontologie Française » entamée en 1840.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les paléontologues Alexandre Brongniart et Georges Cuvier sont les premiers à étudier les « « terrains de craie » de la côte Sainte-Catherine », fixant ainsi la référence internationale de ce type de craie cénomanienne. Alcide Dessalines d'Orbigny mentionne la « faune de la craie de Rouen » dans sa « Paléontologie Française » entamée en 1840.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4te_Sainte-Catherine_(Rouen)</t>
+          <t>Côte_Sainte-Catherine_(Rouen)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Autrefois parcourue par les pèlerins se rendant à la chapelle Saint-Michel, la partie de la colline où elle était située fut bientôt désignée par le même patronyme mais également sous celui de «Mont-Gargan», cette dernière désignation étant une déformation du mot «archange» (nions archangelus), qui lui est restée[1]. 
-La configuration de la colline Sainte-Catherine fut modifiée au XVIIe siècle, lorsque l'autorité municipale de Rouen décida d'établir un chemin voisin de l'église Saint-Paul. Dans l'Histoire de la ville de Rouen de François Farin († 1675) il est dit que ces travaux furent entrepris « pour aider à faire vivre de pauvres artisans et aussi de pauvres maîtres sans ouvrages, par suite de la cherté du blé, tout travail ayant cessé. Quand on fut parvenu au rocher, on y fit des sapes taillées au ciseau, on y attacha de la mine et on fit sauter la côte en différents endroits »[1]. À cette époque, seule une chaussée étroite conduisait de la porte Martainville de la cité de Rouen à la côte Sainte-Catherine, l'espace compris entre les deux n'étant qu'un marais formé par le Robec et l'Aubette, nommé «vivier Martainville » ou encore Malam paludem[4] signifiant mauvais marais. 
-Au XIXe siècle, la côte fut encore entaillée pour le passage de la route de Paris, le percement de la rue Henri-Rivière et, du côté du mont Gargan, d'une carrière. Ces différents travaux ont modifié l'aspect primitif de la colline Sainte-Catherine et diminué ses proportions[1].
-La ligne ferroviaire de Paris à Rouen, dans son tracé définitif, implique enfin le percement d'un tunnel (achevé en 1843) et son élargissement en 1955[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autrefois parcourue par les pèlerins se rendant à la chapelle Saint-Michel, la partie de la colline où elle était située fut bientôt désignée par le même patronyme mais également sous celui de «Mont-Gargan», cette dernière désignation étant une déformation du mot «archange» (nions archangelus), qui lui est restée. 
+La configuration de la colline Sainte-Catherine fut modifiée au XVIIe siècle, lorsque l'autorité municipale de Rouen décida d'établir un chemin voisin de l'église Saint-Paul. Dans l'Histoire de la ville de Rouen de François Farin († 1675) il est dit que ces travaux furent entrepris « pour aider à faire vivre de pauvres artisans et aussi de pauvres maîtres sans ouvrages, par suite de la cherté du blé, tout travail ayant cessé. Quand on fut parvenu au rocher, on y fit des sapes taillées au ciseau, on y attacha de la mine et on fit sauter la côte en différents endroits ». À cette époque, seule une chaussée étroite conduisait de la porte Martainville de la cité de Rouen à la côte Sainte-Catherine, l'espace compris entre les deux n'étant qu'un marais formé par le Robec et l'Aubette, nommé «vivier Martainville » ou encore Malam paludem signifiant mauvais marais. 
+Au XIXe siècle, la côte fut encore entaillée pour le passage de la route de Paris, le percement de la rue Henri-Rivière et, du côté du mont Gargan, d'une carrière. Ces différents travaux ont modifié l'aspect primitif de la colline Sainte-Catherine et diminué ses proportions.
+La ligne ferroviaire de Paris à Rouen, dans son tracé définitif, implique enfin le percement d'un tunnel (achevé en 1843) et son élargissement en 1955.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%B4te_Sainte-Catherine_(Rouen)</t>
+          <t>Côte_Sainte-Catherine_(Rouen)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le belvédère de la côte Sainte-Catherine est accessible par la route de la Corniche (D95) ainsi que par un sentier en escalier de 525 marches partant de la rue Henri-Rivière, à côté de l’entrée du cimetière du Mont-Gargan, et dont le tracé remonte à 1310[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le belvédère de la côte Sainte-Catherine est accessible par la route de la Corniche (D95) ainsi que par un sentier en escalier de 525 marches partant de la rue Henri-Rivière, à côté de l’entrée du cimetière du Mont-Gargan, et dont le tracé remonte à 1310.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%B4te_Sainte-Catherine_(Rouen)</t>
+          <t>Côte_Sainte-Catherine_(Rouen)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +626,12 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une course de 10 et 20 km y fut organisée en 2018 par  l’association de course à pied Traverse aventure[7]. 
-En parallèle, vingt coureurs ont réalisé une Ultra montée de 50 allers-retours du sentier en escalier, soit 5 000 mètres de dénivelé positif. Le premier, Xavier Marchand, a conclu sa course en 8 heures et 30 minutes[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une course de 10 et 20 km y fut organisée en 2018 par  l’association de course à pied Traverse aventure. 
+En parallèle, vingt coureurs ont réalisé une Ultra montée de 50 allers-retours du sentier en escalier, soit 5 000 mètres de dénivelé positif. Le premier, Xavier Marchand, a conclu sa course en 8 heures et 30 minutes.
 </t>
         </is>
       </c>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C%C3%B4te_Sainte-Catherine_(Rouen)</t>
+          <t>Côte_Sainte-Catherine_(Rouen)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Représentation artistique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Monet s'est servi de ce lieu pour illustrer la ville de Rouen dans sa Vue générale de Rouen en 1892.
 </t>
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C%C3%B4te_Sainte-Catherine_(Rouen)</t>
+          <t>Côte_Sainte-Catherine_(Rouen)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,10 +693,12 @@
           <t>Protections</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La côte Sainte-Catherine est un site naturel  Site classé (2002)[8] de 32,71 ha.
-La colline est classée au titre des ZNIEFF[9].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La côte Sainte-Catherine est un site naturel  Site classé (2002) de 32,71 ha.
+La colline est classée au titre des ZNIEFF.
 </t>
         </is>
       </c>
@@ -685,7 +709,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C%C3%B4te_Sainte-Catherine_(Rouen)</t>
+          <t>Côte_Sainte-Catherine_(Rouen)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -704,6 +728,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -711,7 +737,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C%C3%B4te_Sainte-Catherine_(Rouen)</t>
+          <t>Côte_Sainte-Catherine_(Rouen)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -729,9 +755,11 @@
           <t>Lieux et monuments</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Prieuré Saint-Michel[10], dépendant de l'abbaye Saint-Ouen de Rouen ;
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prieuré Saint-Michel, dépendant de l'abbaye Saint-Ouen de Rouen ;
 Abbaye de la Trinité-du-Mont, devenue ensuite abbaye Sainte-Catherine du Mont ;
 Fort Sainte-Catherine</t>
         </is>
